--- a/files/Assignment_DA_2_b_data.xlsx
+++ b/files/Assignment_DA_2_b_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijay Raj\Downloads\01. Assignment Work\06. Decision Analytics\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FC921B-DE72-4C6C-9608-6C69F1F628A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5393ED38-2503-44BD-B64D-4A0F7A50207A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Flight A</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>Flight Z</t>
+  </si>
+  <si>
+    <t>Runway</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Terminal</t>
   </si>
 </sst>
 </file>
@@ -452,7 +461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -463,6 +474,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -776,6 +790,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -837,7 +854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -845,6 +864,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
